--- a/iselUssSyncV2/OutputWSLorientation/20220524_1325_D50L474W30Q16.0U0.34H60.3G2_S2_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1325_D50L474W30Q16.0U0.34H60.3G2_S2_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.013550436903969579</v>
       </c>
       <c r="O2" s="0">
-        <v>0.49865292207989209</v>
+        <v>0.28510400665078639</v>
       </c>
       <c r="P2" s="0">
         <v>188.24951666666675</v>
@@ -356,10 +356,10 @@
         <v>1.8467277585000008</v>
       </c>
       <c r="R2" s="0">
-        <v>1.3751324067835278</v>
+        <v>2.4051355887441703</v>
       </c>
       <c r="S2" s="0">
-        <v>0.34563800753957163</v>
+        <v>1.2292077527339127</v>
       </c>
       <c r="T2" s="0">
         <v>0.034708746150571755</v>
@@ -383,16 +383,16 @@
         <v>160000</v>
       </c>
       <c r="AA2" s="0">
-        <v>1.3429454133944436</v>
+        <v>0.76782688142096001</v>
       </c>
       <c r="AB2" s="0">
-        <v>5.3429533738084967</v>
+        <v>1.5023723649583611</v>
       </c>
       <c r="AC2" s="0">
-        <v>2.9323883980918346</v>
+        <v>1.4661941990459173</v>
       </c>
       <c r="AD2" s="0">
-        <v>2.9500469352476659</v>
+        <v>1.475023467623833</v>
       </c>
       <c r="AE2" s="0">
         <v>20</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>8.2753417719003313</v>
+        <v>2.9685665640042784</v>
       </c>
     </row>
   </sheetData>
